--- a/Bug Reports/Local Letter Of Guarantee Bugs Report.xlsx
+++ b/Bug Reports/Local Letter Of Guarantee Bugs Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62D6895-9B39-4392-B1B1-641C47A8CBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F2820D-AF2A-4943-BC9C-2CF9B634F9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <r>
       <t>System Name</t>
@@ -234,6 +234,21 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>Local LG Amendment-&gt;creation mode-&gt; date of issue field.</t>
+  </si>
+  <si>
+    <t>currently, this field is editable.</t>
+  </si>
+  <si>
+    <t>this field should be disabled, to prevent the user from editing the issue date</t>
+  </si>
+  <si>
+    <t>this field should be disabled, to prevent the user from editing the type of guarntee</t>
+  </si>
+  <si>
+    <t>Local LG Amendment-&gt; creation mode-&gt;  guarantee type field</t>
   </si>
 </sst>
 </file>
@@ -763,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1151,6 +1166,52 @@
         <v>45365</v>
       </c>
     </row>
+    <row r="17" spans="1:7" ht="45">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45370</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45370</v>
+      </c>
+      <c r="G18" s="3">
+        <v>45370</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>

--- a/Bug Reports/Local Letter Of Guarantee Bugs Report.xlsx
+++ b/Bug Reports/Local Letter Of Guarantee Bugs Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F2820D-AF2A-4943-BC9C-2CF9B634F9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993439FC-6BFD-4278-97FF-B2C574D946DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
   <si>
     <r>
       <t>System Name</t>
@@ -250,6 +250,246 @@
   <si>
     <t>Local LG Amendment-&gt; creation mode-&gt;  guarantee type field</t>
   </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment-&gt;Adjust type -&gt;Reference Details section</t>
+  </si>
+  <si>
+    <t>all fields in Reference Details secion should be disabled for Adjust</t>
+  </si>
+  <si>
+    <t>currently most of these fields are enabled</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment-&gt;Adjust type -&gt;Margin Details section</t>
+  </si>
+  <si>
+    <t>currently, margin is editabe with Adjust</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment-&gt;Amend type -&gt;Reference Details section</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment
+-&gt;Amend type -&gt;Beneficiary Details section</t>
+  </si>
+  <si>
+    <t>for Amend Type, we can not edit the beneficiary details</t>
+  </si>
+  <si>
+    <t>the total commission amount should be for new commission (not for the whole lg commission starting from issuing event)</t>
+  </si>
+  <si>
+    <t>you view the commission starting from issuing event</t>
+  </si>
+  <si>
+    <t>in adjust mode, it is supposed to prevent the user to edit the margin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">all fields in Reference Details section should be disabled for Amend,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Except for: Date of Expiry, Subject/Reason of LG , 
+Other Remarks</t>
+    </r>
+  </si>
+  <si>
+    <t>we can edit it in Adjust mode only.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment
+-&gt;Amend type -&gt;Commission Details section</t>
+  </si>
+  <si>
+    <t>we know that you do it correctly in
+ voucher,but as business practice, bank 
+team suggested this.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment
+-&gt;Amend type -&gt;increase the LG amount.</t>
+  </si>
+  <si>
+    <t>it is supposed, to calculate the commission for each increased amount sepratelly.</t>
+  </si>
+  <si>
+    <t>you donot take any commission for the newly increased amount.</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">when we fill the undertaking amount, a kind of validation is needed that is 
+the UnUtilized Amount of facility account should be equal or greater than the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>whole LG amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> preventing the user to complete the event(In other words:the user needs a warning  just to inform him about that UnUtilized Amount less than the whole LG amount with the ability to complete the event)</t>
+    </r>
+  </si>
+  <si>
+    <t>mail date &amp; mail number fields should be available.</t>
+  </si>
+  <si>
+    <t>currently are not existed.</t>
+  </si>
+  <si>
+    <t>these sections are existed as disabled fields.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee Expiry event-&gt; creation mode</t>
+  </si>
+  <si>
+    <t>Issuing Bank Details &amp; Receiving Bank(BIC) &amp; Advising Bank fields are meaningless in local LG(to be removed)</t>
+  </si>
+  <si>
+    <t>(21) Related Reference No'  field is needeless(should be removed)</t>
+  </si>
+  <si>
+    <t>view swift message' button is meaningless in local LG(should be removed)</t>
+  </si>
+  <si>
+    <t>currently is existed.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;creation mode</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee Expiry event(cancel, expire,close )</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee Expiry event(cancel, close)-&gt; creation mode</t>
+  </si>
+  <si>
+    <t>Note:when I mention Local LG Expiry 
+event, I mean the expiry as event not expiry status</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee Expiry event(cancel)-&gt; creation mode</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee Expiry event(cancel)-&gt; 
+creation mode -&gt;(22A) Purpose Code field</t>
+  </si>
+  <si>
+    <t>this field should be removed for local gurantee</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee Enquiry -&gt; fill the Date range -&gt; customer -&gt; fill specific LG refernce -&gt; cllick view-&gt; view the details specific stage.</t>
+  </si>
+  <si>
+    <t>margin amount field, arabic beneficiary name, customer name, outstanding liability amount, all these field are requested in this event.</t>
+  </si>
+  <si>
+    <t>none of them is existed.</t>
+  </si>
+  <si>
+    <t>the amount field in all retreived records should changes with the current stage.</t>
+  </si>
+  <si>
+    <t>for instance, we have an LG has these events:
+iss =100000 .
+Claim =5000 .
+Invoke=5000 .
+Claim=2000 .
+The amount field should contains the previous amounts as per the stage.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee Enquiry -&gt; fill the Date range -&gt;  fill customer field  -&gt; cllick view.</t>
+  </si>
+  <si>
+    <t>currently it is fixed for all stages.</t>
+  </si>
+  <si>
+    <t>the commission should be calculated automatically.</t>
+  </si>
+  <si>
+    <t>currently no commission viewed.</t>
+  </si>
+  <si>
+    <t>for the case in which we use facility account you debit the comm without crediting it.</t>
+  </si>
+  <si>
+    <t>Local Letter of Guarantee event -&gt;creation mode -&gt; use facility account -&gt; margin &lt;100% -&gt; view voucher.</t>
+  </si>
+  <si>
+    <t>Local Letter of Guarantee event -&gt;creation mode -&gt; use facility account -&gt; margin &lt;100%.</t>
+  </si>
+  <si>
+    <t>in voucher, the commission should be credited to commission account</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment -&gt; mail Date field.</t>
+  </si>
+  <si>
+    <t>it is supposed, to be able to fill this field by previous date.</t>
+  </si>
+  <si>
+    <t>currently, we can not do it.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment -&gt; change the facility account disicion to NO.</t>
+  </si>
+  <si>
+    <t>we expect to remind me to cover the LG totally</t>
+  </si>
+  <si>
+    <t>currently we can remove the facility account without covering the LG by 100 % mgn.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;local letter of guarantee issue event &amp; amendment event</t>
+  </si>
+  <si>
+    <t>currently, user can enter the percentage and then get the amount as per this percentage</t>
+  </si>
+  <si>
+    <t>user should be able to enter the the margin amount and the percentage will be generated according to the entered value(in addition to the available ability to enter the percentage and then get the margin amount).</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +498,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +538,15 @@
       <name val="MS Gothic"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +589,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -453,7 +706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -482,6 +735,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -778,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -800,11 +1057,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="11"/>
       <c r="F1" s="2"/>
     </row>
@@ -812,11 +1069,11 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="12"/>
       <c r="F2" s="5"/>
     </row>
@@ -1104,8 +1361,8 @@
       <c r="B14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>9</v>
+      <c r="C14" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>48</v>
@@ -1117,7 +1374,7 @@
         <v>45364</v>
       </c>
       <c r="G14" s="3">
-        <v>45364</v>
+        <v>45382</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
@@ -1150,8 +1407,8 @@
       <c r="B16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>9</v>
+      <c r="C16" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>54</v>
@@ -1163,18 +1420,18 @@
         <v>45365</v>
       </c>
       <c r="G16" s="3">
-        <v>45365</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45">
       <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>9</v>
+      <c r="C17" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>59</v>
@@ -1186,18 +1443,21 @@
         <v>45370</v>
       </c>
       <c r="G17" s="3">
-        <v>45370</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45">
+        <v>45375</v>
+      </c>
+      <c r="H17" s="3">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>9</v>
+      <c r="C18" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>60</v>
@@ -1209,7 +1469,499 @@
         <v>45370</v>
       </c>
       <c r="G18" s="3">
-        <v>45370</v>
+        <v>45375</v>
+      </c>
+      <c r="H18" s="3">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45375</v>
+      </c>
+      <c r="G19" s="3">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="30">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45375</v>
+      </c>
+      <c r="G20" s="3">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45375</v>
+      </c>
+      <c r="G21" s="3">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45375</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="60">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45375</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45382</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45375</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="195">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45378</v>
+      </c>
+      <c r="G25" s="3">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45378</v>
+      </c>
+      <c r="G26" s="3">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="60">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45378</v>
+      </c>
+      <c r="G27" s="3">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45378</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="45">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45378</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="45">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45384</v>
+      </c>
+      <c r="G30" s="3">
+        <v>45384</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45384</v>
+      </c>
+      <c r="G31" s="3">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45384</v>
+      </c>
+      <c r="G32" s="3">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="75">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45384</v>
+      </c>
+      <c r="G33" s="3">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="120">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45384</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45384</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45384</v>
+      </c>
+      <c r="G35" s="3">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45384</v>
+      </c>
+      <c r="G36" s="3">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45385</v>
+      </c>
+      <c r="G37" s="3">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45385</v>
+      </c>
+      <c r="G38" s="3">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="105">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45386</v>
+      </c>
+      <c r="G39" s="3">
+        <v>45386</v>
       </c>
     </row>
   </sheetData>

--- a/Bug Reports/Local Letter Of Guarantee Bugs Report.xlsx
+++ b/Bug Reports/Local Letter Of Guarantee Bugs Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{993439FC-6BFD-4278-97FF-B2C574D946DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0634446-2CEF-4990-AE15-E339ADD3D7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
   <si>
     <r>
       <t>System Name</t>
@@ -252,9 +252,6 @@
   </si>
   <si>
     <t>Letter of Guarantee-&gt;Local LG Amendment-&gt;Adjust type -&gt;Reference Details section</t>
-  </si>
-  <si>
-    <t>all fields in Reference Details secion should be disabled for Adjust</t>
   </si>
   <si>
     <t>currently most of these fields are enabled</t>
@@ -302,9 +299,6 @@
     </r>
   </si>
   <si>
-    <t>we can edit it in Adjust mode only.</t>
-  </si>
-  <si>
     <t>Letter of Guarantee-&gt;Local LG Amendment
 -&gt;Amend type -&gt;Commission Details section</t>
   </si>
@@ -316,12 +310,6 @@
   <si>
     <t>Letter of Guarantee-&gt;Local LG Amendment
 -&gt;Amend type -&gt;increase the LG amount.</t>
-  </si>
-  <si>
-    <t>it is supposed, to calculate the commission for each increased amount sepratelly.</t>
-  </si>
-  <si>
-    <t>you donot take any commission for the newly increased amount.</t>
   </si>
   <si>
     <t>Fail</t>
@@ -489,6 +477,67 @@
   </si>
   <si>
     <t>user should be able to enter the the margin amount and the percentage will be generated according to the entered value(in addition to the available ability to enter the percentage and then get the margin amount).</t>
+  </si>
+  <si>
+    <t>we can edit it in Adjust &amp; Amend mode.</t>
+  </si>
+  <si>
+    <t>this comm is not existed.</t>
+  </si>
+  <si>
+    <t>Local Letter of Guarantee event -&gt;creation mode -&gt; OUP Charges</t>
+  </si>
+  <si>
+    <t>assignment comm should be  added as new option to Oup Code (and configured as 0.005 * LG amount)</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment -&gt;decrease LG amount</t>
+  </si>
+  <si>
+    <t>amend comm should be taken.</t>
+  </si>
+  <si>
+    <t>not taken according to current implementation.</t>
+  </si>
+  <si>
+    <t>there a minimum limit should be considered(the case of margin&lt;100%).</t>
+  </si>
+  <si>
+    <t>currently, you calculate the comm without taking care about the minimum limit.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment
+-&gt;Amend type -&gt;extend the LG expiry date.</t>
+  </si>
+  <si>
+    <t>no commissions taken for the extended date.</t>
+  </si>
+  <si>
+    <t>it is supposed to generate new comm for the new periods.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment
+-&gt;Amend type -&gt; revert a part from the margin amount.</t>
+  </si>
+  <si>
+    <t>new commission should be taken.</t>
+  </si>
+  <si>
+    <t>no new commission taken in this case.</t>
+  </si>
+  <si>
+    <t>Date of Expiry field, Link Facility Account Y/N, Facility Account &amp; Limit Type fields ,all of them should be disabled in adjust mode.</t>
+  </si>
+  <si>
+    <t>currently all of them are editable.</t>
+  </si>
+  <si>
+    <t>this point has been upadated according to last test session.</t>
+  </si>
+  <si>
+    <t>please notice we mentioned that need 
+a warning message but without preventing 
+the user to continue</t>
   </si>
 </sst>
 </file>
@@ -706,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -753,6 +802,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1035,10 +1087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1050,7 +1102,7 @@
     <col min="6" max="6" width="16.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1217,8 +1269,8 @@
       <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
+      <c r="C8" s="14" t="s">
+        <v>76</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>29</v>
@@ -1230,13 +1282,13 @@
         <v>45362</v>
       </c>
       <c r="G8" s="3">
-        <v>45362</v>
+        <v>45400</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="105">
+    <row r="9" spans="1:9" ht="75">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1362,7 +1414,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>48</v>
@@ -1374,7 +1426,7 @@
         <v>45364</v>
       </c>
       <c r="G14" s="3">
-        <v>45382</v>
+        <v>45400</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
@@ -1475,7 +1527,7 @@
         <v>45375</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="60">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1486,16 +1538,19 @@
         <v>9</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="F19" s="3">
         <v>45375</v>
       </c>
       <c r="G19" s="3">
         <v>45375</v>
+      </c>
+      <c r="I19" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
@@ -1503,16 +1558,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="F20" s="3">
         <v>45375</v>
@@ -1521,27 +1576,30 @@
         <v>45375</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="75">
+    <row r="21" spans="1:9" ht="90">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>9</v>
+        <v>66</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="3">
         <v>45375</v>
       </c>
       <c r="G21" s="3">
-        <v>45375</v>
+        <v>45400</v>
+      </c>
+      <c r="H21" s="3">
+        <v>45400</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="30">
@@ -1549,22 +1607,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="E22" s="9" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F22" s="3">
         <v>45375</v>
       </c>
       <c r="G22" s="3">
-        <v>45375</v>
+        <v>45400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>45400</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="60">
@@ -1572,16 +1633,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>71</v>
       </c>
       <c r="F23" s="3">
         <v>45375</v>
@@ -1590,44 +1651,47 @@
         <v>45382</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="195">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>79</v>
-      </c>
       <c r="F24" s="3">
-        <v>45375</v>
+        <v>45378</v>
       </c>
       <c r="G24" s="3">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="195">
+        <v>45400</v>
+      </c>
+      <c r="I24" s="21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F25" s="3">
         <v>45378</v>
@@ -1636,12 +1700,12 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="30">
+    <row r="26" spans="1:9" ht="60">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>9</v>
@@ -1650,7 +1714,7 @@
         <v>82</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3">
         <v>45378</v>
@@ -1659,21 +1723,21 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="60">
+    <row r="27" spans="1:9" ht="30">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="F27" s="3">
         <v>45378</v>
@@ -1682,21 +1746,21 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30">
+    <row r="28" spans="1:9" ht="45">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F28" s="3">
         <v>45378</v>
@@ -1710,22 +1774,25 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="F29" s="3">
+        <v>45384</v>
+      </c>
+      <c r="G29" s="3">
+        <v>45384</v>
+      </c>
+      <c r="I29" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="F29" s="3">
-        <v>45378</v>
-      </c>
-      <c r="G29" s="3">
-        <v>45378</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="45">
@@ -1733,16 +1800,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F30" s="3">
         <v>45384</v>
@@ -1750,25 +1817,22 @@
       <c r="G30" s="3">
         <v>45384</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="45">
+    </row>
+    <row r="31" spans="1:9" ht="30">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>88</v>
+      <c r="D31" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F31" s="3">
         <v>45384</v>
@@ -1777,21 +1841,21 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="30">
+    <row r="32" spans="1:9" ht="75">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>95</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="F32" s="3">
         <v>45384</v>
@@ -1800,18 +1864,18 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="75">
+    <row r="33" spans="1:9" ht="120">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>99</v>
@@ -1822,13 +1886,16 @@
       <c r="G33" s="3">
         <v>45384</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="120">
+      <c r="I33" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45">
       <c r="A34">
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>9</v>
@@ -1837,16 +1904,13 @@
         <v>100</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F34" s="3">
         <v>45384</v>
       </c>
       <c r="G34" s="3">
         <v>45384</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="45">
@@ -1854,16 +1918,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F35" s="3">
         <v>45384</v>
@@ -1872,44 +1936,44 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="45">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="E36" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F36" s="3">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="G36" s="3">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="30">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="45">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="F37" s="3">
         <v>45385</v>
@@ -1918,12 +1982,12 @@
         <v>45385</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="45">
+    <row r="38" spans="1:9" ht="105">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>9</v>
@@ -1932,21 +1996,21 @@
         <v>114</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F38" s="3">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="G38" s="3">
-        <v>45385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="105">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>9</v>
@@ -1955,14 +2019,112 @@
         <v>118</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F39" s="3">
-        <v>45386</v>
+        <v>45398</v>
       </c>
       <c r="G39" s="3">
-        <v>45386</v>
-      </c>
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45398</v>
+      </c>
+      <c r="G40" s="3">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45398</v>
+      </c>
+      <c r="G41" s="3">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45398</v>
+      </c>
+      <c r="G42" s="3">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45398</v>
+      </c>
+      <c r="G43" s="3">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Bug Reports/Local Letter Of Guarantee Bugs Report.xlsx
+++ b/Bug Reports/Local Letter Of Guarantee Bugs Report.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0634446-2CEF-4990-AE15-E339ADD3D7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A050B-2CBD-4AB5-ACFC-5110A00A6DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bugs" sheetId="1" r:id="rId1"/>
+    <sheet name="missed implementation" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="165">
   <si>
     <r>
       <t>System Name</t>
@@ -491,15 +492,6 @@
     <t>assignment comm should be  added as new option to Oup Code (and configured as 0.005 * LG amount)</t>
   </si>
   <si>
-    <t>Letter of Guarantee-&gt;Local LG Amendment -&gt;decrease LG amount</t>
-  </si>
-  <si>
-    <t>amend comm should be taken.</t>
-  </si>
-  <si>
-    <t>not taken according to current implementation.</t>
-  </si>
-  <si>
     <t>there a minimum limit should be considered(the case of margin&lt;100%).</t>
   </si>
   <si>
@@ -538,6 +530,120 @@
     <t>please notice we mentioned that need 
 a warning message but without preventing 
 the user to continue</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment
+-&gt;Amend type -&gt; upadate the margin from 0% to 100%</t>
+  </si>
+  <si>
+    <t>in this special case, no comm should be taken.</t>
+  </si>
+  <si>
+    <t>currently, new comm taken bydefault.</t>
+  </si>
+  <si>
+    <t>we have some situations to issue LG without
+ margin and then we can take the margin in
+ amend, so in this case no need to take the
+ comm in amendment event.</t>
+  </si>
+  <si>
+    <t>Local Letter of Guarantee event -&gt;creation mode -&gt; issue a new LG with margin=0%.</t>
+  </si>
+  <si>
+    <t>for this case you do not take the commission ino your consideration.</t>
+  </si>
+  <si>
+    <t>the status of this LD should be 'CANCELED'.</t>
+  </si>
+  <si>
+    <t>as per your implementation, we can not see the new status of this LG.</t>
+  </si>
+  <si>
+    <t>the status of this LD should be 'CLOSED'.</t>
+  </si>
+  <si>
+    <t>cancel a specific LG.</t>
+  </si>
+  <si>
+    <t>close a specific LG.</t>
+  </si>
+  <si>
+    <t>summary about the last state this LG has got it,
+ and we discussed this scenario in import LC and we shared
+ you with the breif information that bank team concerns about,
+ so the same implementation is needed also in LG</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment
+-&gt;Adjust type -&gt;Reference Details section</t>
+  </si>
+  <si>
+    <t>currently are disabled.</t>
+  </si>
+  <si>
+    <t>Mail/Approval Date, Mail/Approval No, Decision Date, 
+Decision No, Contract Date &amp; Contract No should be enabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Letter of Guarantee-&gt;Local LG Amendment
+-&gt;Adjust type -&gt;Reference Details section-&gt;Link Facility Account Y/N </t>
+  </si>
+  <si>
+    <t>Link Facility Account Y/N is disabled.</t>
+  </si>
+  <si>
+    <t>is gray but we can edit it.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment-&gt;
+Amend type -&gt;Reference Details section</t>
+  </si>
+  <si>
+    <t>Link Facility Account, Facility Account, Approved Limit &amp; UnUtilized Amount to be enabled</t>
+  </si>
+  <si>
+    <t>all of them are disabled.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee - Claim -&gt; 
+Reason For Claim field</t>
+  </si>
+  <si>
+    <t>the entered text in arabic, should be supported, when retrieve it in review or authorize event it should apeare right.</t>
+  </si>
+  <si>
+    <t>when retrieve the event in review or authorize, the text is random.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-Invoke.</t>
+  </si>
+  <si>
+    <t>credit account name field is needed beside credit account field</t>
+  </si>
+  <si>
+    <t>currently, no credit account name.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee Expiry event-&gt; creation mode -&gt; Letter of Guarantee section.</t>
+  </si>
+  <si>
+    <t>all gray fields in this section should disabled.</t>
+  </si>
+  <si>
+    <t>user can edit it even though it is gray.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee Expiry event-&gt; review mode.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee Expiry event-&gt; authorize mode.</t>
+  </si>
+  <si>
+    <t>view swift message' button is needless. Should be removed.</t>
+  </si>
+  <si>
+    <t>there is view swift button.</t>
   </si>
 </sst>
 </file>
@@ -755,7 +861,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -788,6 +894,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -802,9 +915,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1087,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1109,11 +1219,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="11"/>
       <c r="F1" s="2"/>
     </row>
@@ -1121,11 +1231,11 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="12"/>
       <c r="F2" s="5"/>
     </row>
@@ -1321,8 +1431,8 @@
       <c r="B10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>9</v>
+      <c r="C10" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>36</v>
@@ -1331,7 +1441,10 @@
         <v>45364</v>
       </c>
       <c r="G10" s="3">
-        <v>45364</v>
+        <v>45407</v>
+      </c>
+      <c r="H10" s="3">
+        <v>45407</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="45">
@@ -1367,8 +1480,8 @@
       <c r="B12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>9</v>
+      <c r="C12" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>42</v>
@@ -1380,7 +1493,10 @@
         <v>45364</v>
       </c>
       <c r="G12" s="3">
-        <v>45364</v>
+        <v>45405</v>
+      </c>
+      <c r="H12" s="3">
+        <v>45405</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="45">
@@ -1534,23 +1650,26 @@
       <c r="B19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>9</v>
+      <c r="C19" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F19" s="3">
         <v>45375</v>
       </c>
       <c r="G19" s="3">
-        <v>45375</v>
+        <v>45405</v>
+      </c>
+      <c r="H19" s="3">
+        <v>45405</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
@@ -1560,8 +1679,8 @@
       <c r="B20" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>9</v>
+      <c r="C20" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>71</v>
@@ -1573,10 +1692,13 @@
         <v>45375</v>
       </c>
       <c r="G20" s="3">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="90">
+        <v>45405</v>
+      </c>
+      <c r="H20" s="3">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="75">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1673,8 +1795,8 @@
       <c r="G24" s="3">
         <v>45400</v>
       </c>
-      <c r="I24" s="21" t="s">
-        <v>133</v>
+      <c r="I24" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30">
@@ -1684,8 +1806,8 @@
       <c r="B25" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>9</v>
+      <c r="C25" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>78</v>
@@ -1697,7 +1819,10 @@
         <v>45378</v>
       </c>
       <c r="G25" s="3">
-        <v>45378</v>
+        <v>45405</v>
+      </c>
+      <c r="H25" s="3">
+        <v>45405</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="60">
@@ -1707,8 +1832,8 @@
       <c r="B26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>9</v>
+      <c r="C26" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>82</v>
@@ -1720,7 +1845,10 @@
         <v>45378</v>
       </c>
       <c r="G26" s="3">
-        <v>45378</v>
+        <v>45405</v>
+      </c>
+      <c r="H26" s="3">
+        <v>45405</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30">
@@ -1776,8 +1904,8 @@
       <c r="B29" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>9</v>
+      <c r="C29" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D29" s="15" t="s">
         <v>83</v>
@@ -1789,7 +1917,10 @@
         <v>45384</v>
       </c>
       <c r="G29" s="3">
-        <v>45384</v>
+        <v>45405</v>
+      </c>
+      <c r="H29" s="3">
+        <v>45405</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>89</v>
@@ -1802,8 +1933,8 @@
       <c r="B30" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>9</v>
+      <c r="C30" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>84</v>
@@ -1815,7 +1946,10 @@
         <v>45384</v>
       </c>
       <c r="G30" s="3">
-        <v>45384</v>
+        <v>45405</v>
+      </c>
+      <c r="H30" s="3">
+        <v>45405</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="30">
@@ -1825,8 +1959,8 @@
       <c r="B31" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>9</v>
+      <c r="C31" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>92</v>
@@ -1838,7 +1972,10 @@
         <v>45384</v>
       </c>
       <c r="G31" s="3">
-        <v>45384</v>
+        <v>45405</v>
+      </c>
+      <c r="H31" s="3">
+        <v>45405</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="75">
@@ -1943,8 +2080,8 @@
       <c r="B36" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>9</v>
+      <c r="C36" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>107</v>
@@ -1956,7 +2093,10 @@
         <v>45385</v>
       </c>
       <c r="G36" s="3">
-        <v>45385</v>
+        <v>45407</v>
+      </c>
+      <c r="H36" s="3">
+        <v>45407</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="45">
@@ -2028,21 +2168,21 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="30">
+    <row r="40" spans="1:9" ht="45">
       <c r="A40">
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="9" t="s">
+      <c r="E40" s="9" t="s">
         <v>120</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>121</v>
       </c>
       <c r="F40" s="3">
         <v>45398</v>
@@ -2051,21 +2191,21 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="45">
+    <row r="41" spans="1:9" ht="30">
       <c r="A41">
         <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>123</v>
       </c>
       <c r="F41" s="3">
         <v>45398</v>
@@ -2074,7 +2214,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="30">
+    <row r="42" spans="1:9" ht="45">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2085,10 +2225,10 @@
         <v>9</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>125</v>
       </c>
       <c r="F42" s="3">
         <v>45398</v>
@@ -2097,34 +2237,288 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="45">
+    <row r="43" spans="1:9" ht="30">
       <c r="A43">
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F43" s="3">
-        <v>45398</v>
+        <v>45403</v>
       </c>
       <c r="G43" s="3">
-        <v>45398</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="60">
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45403</v>
+      </c>
+      <c r="G44" s="3">
+        <v>45403</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="30">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45403</v>
+      </c>
+      <c r="G45" s="3">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="30">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="3">
+        <v>45403</v>
+      </c>
+      <c r="G46" s="3">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="60">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="F47" s="18">
+        <v>45405</v>
+      </c>
+      <c r="G47" s="18">
+        <v>45406</v>
+      </c>
+      <c r="H47" s="18"/>
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" ht="45">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45405</v>
+      </c>
+      <c r="G48" s="3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="45">
+      <c r="A49" s="6">
+        <v>46</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="18">
+        <v>45405</v>
+      </c>
+      <c r="G49" s="18">
+        <v>45405</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9" ht="60">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F50" s="3">
+        <v>45406</v>
+      </c>
+      <c r="G50" s="3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F51" s="3">
+        <v>45406</v>
+      </c>
+      <c r="G51" s="3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="3">
+        <v>45406</v>
+      </c>
+      <c r="G52" s="3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="3">
+        <v>45406</v>
+      </c>
+      <c r="G53" s="3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45406</v>
+      </c>
+      <c r="G54" s="3">
+        <v>45406</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2133,4 +2527,28 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816D2CC9-6089-42CB-A90D-A84DFABED7E2}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="90">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Bug Reports/Local Letter Of Guarantee Bugs Report.xlsx
+++ b/Bug Reports/Local Letter Of Guarantee Bugs Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22A050B-2CBD-4AB5-ACFC-5110A00A6DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A19547-A0AD-4A31-BB4D-BBA246B41BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="168">
   <si>
     <r>
       <t>System Name</t>
@@ -183,9 +183,6 @@
   <si>
     <t>the successful message currently contains only
  the account number.</t>
-  </si>
-  <si>
-    <t>the LG reference like this:''</t>
   </si>
   <si>
     <t>Letter of Guarantee-&gt;Letter of Guarantee-Invoke-&gt;creation mode-&gt;Charges Debit Account field</t>
@@ -645,6 +642,72 @@
   <si>
     <t>there is view swift button.</t>
   </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment-&gt;Amend type -&gt; select 'yes' in Link Facility Account field.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Facility Account field should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be in gray color</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>this  field is gray, event though it is eneabled.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+Link Facility Account Y/N field should </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be in gray.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -653,7 +716,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,6 +759,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1197,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1276,7 +1345,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>10</v>
@@ -1302,7 +1371,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>16</v>
@@ -1328,7 +1397,7 @@
         <v>27</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>18</v>
@@ -1380,7 +1449,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>29</v>
@@ -1432,7 +1501,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>36</v>
@@ -1454,8 +1523,8 @@
       <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>9</v>
+      <c r="C11" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>38</v>
@@ -1467,27 +1536,28 @@
         <v>45364</v>
       </c>
       <c r="G11" s="3">
-        <v>45364</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>45417</v>
+      </c>
+      <c r="H11" s="3">
+        <v>45417</v>
+      </c>
+      <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="45">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="F12" s="3">
         <v>45364</v>
@@ -1504,22 +1574,25 @@
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="F13" s="3">
         <v>45364</v>
       </c>
       <c r="G13" s="3">
-        <v>45364</v>
+        <v>45417</v>
+      </c>
+      <c r="H13" s="3">
+        <v>45417</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30">
@@ -1527,16 +1600,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="F14" s="3">
         <v>45364</v>
@@ -1550,16 +1623,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="F15" s="3">
         <v>45365</v>
@@ -1573,16 +1646,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>55</v>
       </c>
       <c r="F16" s="3">
         <v>45365</v>
@@ -1596,16 +1669,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="F17" s="3">
         <v>45370</v>
@@ -1622,16 +1695,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" s="3">
         <v>45370</v>
@@ -1648,16 +1721,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="F19" s="3">
         <v>45375</v>
@@ -1669,7 +1742,7 @@
         <v>45405</v>
       </c>
       <c r="I19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="30">
@@ -1677,16 +1750,16 @@
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="F20" s="3">
         <v>45375</v>
@@ -1703,16 +1776,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="3">
         <v>45375</v>
@@ -1729,16 +1802,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="E22" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F22" s="3">
         <v>45375</v>
@@ -1755,16 +1828,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="F23" s="3">
         <v>45375</v>
@@ -1773,7 +1846,7 @@
         <v>45382</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="195">
@@ -1781,13 +1854,13 @@
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="F24" s="3">
         <v>45378</v>
@@ -1796,7 +1869,7 @@
         <v>45400</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="30">
@@ -1804,16 +1877,16 @@
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="F25" s="3">
         <v>45378</v>
@@ -1830,16 +1903,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="E26" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F26" s="3">
         <v>45378</v>
@@ -1856,16 +1929,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="3">
         <v>45378</v>
@@ -1879,16 +1952,16 @@
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="F28" s="3">
         <v>45378</v>
@@ -1902,16 +1975,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F29" s="3">
         <v>45384</v>
@@ -1923,7 +1996,7 @@
         <v>45405</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="45">
@@ -1931,16 +2004,16 @@
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="F30" s="3">
         <v>45384</v>
@@ -1957,16 +2030,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="E31" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="3">
         <v>45384</v>
@@ -1983,22 +2056,25 @@
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>94</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>95</v>
       </c>
       <c r="F32" s="3">
         <v>45384</v>
       </c>
       <c r="G32" s="3">
-        <v>45384</v>
+        <v>45417</v>
+      </c>
+      <c r="H32" s="3">
+        <v>45417</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="120">
@@ -2006,25 +2082,28 @@
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>99</v>
       </c>
       <c r="F33" s="3">
         <v>45384</v>
       </c>
       <c r="G33" s="3">
-        <v>45384</v>
+        <v>45417</v>
+      </c>
+      <c r="H33" s="3">
+        <v>45417</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="45">
@@ -2032,16 +2111,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>100</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>101</v>
       </c>
       <c r="F34" s="3">
         <v>45384</v>
@@ -2055,16 +2134,16 @@
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F35" s="3">
         <v>45384</v>
@@ -2078,16 +2157,16 @@
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="F36" s="3">
         <v>45385</v>
@@ -2104,16 +2183,16 @@
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="F37" s="3">
         <v>45385</v>
@@ -2127,16 +2206,16 @@
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="3">
         <v>45386</v>
@@ -2150,16 +2229,16 @@
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F39" s="3">
         <v>45398</v>
@@ -2173,16 +2252,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>119</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>120</v>
       </c>
       <c r="F40" s="3">
         <v>45398</v>
@@ -2196,16 +2275,16 @@
         <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F41" s="3">
         <v>45398</v>
@@ -2219,16 +2298,16 @@
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="F42" s="3">
         <v>45398</v>
@@ -2242,16 +2321,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F43" s="3">
         <v>45403</v>
@@ -2265,16 +2344,16 @@
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="F44" s="3">
         <v>45403</v>
@@ -2283,7 +2362,7 @@
         <v>45403</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30">
@@ -2291,16 +2370,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>137</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="F45" s="3">
         <v>45403</v>
@@ -2314,16 +2393,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F46" s="3">
         <v>45403</v>
@@ -2337,16 +2416,16 @@
         <v>44</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F47" s="18">
         <v>45405</v>
@@ -2362,16 +2441,16 @@
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>148</v>
       </c>
       <c r="F48" s="3">
         <v>45405</v>
@@ -2385,16 +2464,16 @@
         <v>46</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="E49" s="17" t="s">
         <v>150</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="F49" s="18">
         <v>45405</v>
@@ -2410,22 +2489,25 @@
         <v>47</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>154</v>
       </c>
       <c r="F50" s="3">
         <v>45406</v>
       </c>
       <c r="G50" s="3">
-        <v>45406</v>
+        <v>45417</v>
+      </c>
+      <c r="H50" s="3">
+        <v>45417</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30">
@@ -2433,16 +2515,16 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="F51" s="3">
         <v>45406</v>
@@ -2456,16 +2538,16 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>160</v>
       </c>
       <c r="F52" s="3">
         <v>45406</v>
@@ -2479,22 +2561,25 @@
         <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>9</v>
+        <v>160</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="D53" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="F53" s="3">
         <v>45406</v>
       </c>
       <c r="G53" s="3">
-        <v>45406</v>
+        <v>45417</v>
+      </c>
+      <c r="H53" s="3">
+        <v>45417</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="30">
@@ -2502,22 +2587,76 @@
         <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="15" t="s">
+      <c r="E54" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="F54" s="3">
         <v>45406</v>
       </c>
       <c r="G54" s="3">
-        <v>45406</v>
+        <v>45417</v>
+      </c>
+      <c r="H54" s="3">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="45">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45431</v>
+      </c>
+      <c r="G55" s="3">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="45">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" s="3">
+        <v>45431</v>
+      </c>
+      <c r="G56" s="3">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2526,6 +2665,7 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2545,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Bug Reports/Local Letter Of Guarantee Bugs Report.xlsx
+++ b/Bug Reports/Local Letter Of Guarantee Bugs Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A19547-A0AD-4A31-BB4D-BBA246B41BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2850A38-1804-4CB3-9F45-EC58ECF2A053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Bugs" sheetId="1" r:id="rId1"/>
     <sheet name="missed implementation" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bugs!$C$1:$C$60</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="179">
   <si>
     <r>
       <t>System Name</t>
@@ -148,23 +151,6 @@
   </si>
   <si>
     <t>the allowed number of charecters is small and not efficient</t>
-  </si>
-  <si>
-    <t>local letter of guarantee event-&gt;
-creation mode-&gt;Approved limit field &amp; 
-UnUtilized Amount.</t>
-  </si>
-  <si>
-    <t>the values of these two fields should be related to the facility account of this customer.</t>
-  </si>
-  <si>
-    <t>the values of these two fields are related to limit value of this customer.</t>
-  </si>
-  <si>
-    <t>we have agreed that we do not have such
- as this practice(guarantee limit on the 
-customer account) but may this customer
- has a facility account and this facility account has an approved limit)</t>
   </si>
   <si>
     <t>local letter of guarantee event-&gt;
@@ -480,15 +466,6 @@
     <t>we can edit it in Adjust &amp; Amend mode.</t>
   </si>
   <si>
-    <t>this comm is not existed.</t>
-  </si>
-  <si>
-    <t>Local Letter of Guarantee event -&gt;creation mode -&gt; OUP Charges</t>
-  </si>
-  <si>
-    <t>assignment comm should be  added as new option to Oup Code (and configured as 0.005 * LG amount)</t>
-  </si>
-  <si>
     <t>there a minimum limit should be considered(the case of margin&lt;100%).</t>
   </si>
   <si>
@@ -708,13 +685,70 @@
       <t xml:space="preserve"> be in gray.</t>
     </r>
   </si>
+  <si>
+    <t>enquiry event.</t>
+  </si>
+  <si>
+    <t>the user usually searchs by the reference of this product only, no need to fill the customer number.</t>
+  </si>
+  <si>
+    <t>you consider the customer number is mandatory field.</t>
+  </si>
+  <si>
+    <t>for each stage(event), when click on view button, bank team expects to give them the details of this event(all the details).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> currently you view the same small summary for all stages(the results should change with the viewed stage).</t>
+  </si>
+  <si>
+    <t>Local Letter Of Guarantee event-&gt; creation mode.</t>
+  </si>
+  <si>
+    <t>the amount in arabic words is running right for only 7 digits.</t>
+  </si>
+  <si>
+    <t>the amount in arabic words should support more digits.</t>
+  </si>
+  <si>
+    <t>according to the solution that we provided you, it supports until 15 digits.</t>
+  </si>
+  <si>
+    <t>whatever the LG amount, the commission is calculated as minimum limit.</t>
+  </si>
+  <si>
+    <t>Local Letter Of Guarantee event-&gt; creation mode-&gt; LG in USD currency.</t>
+  </si>
+  <si>
+    <t>according the current instruction the minimum limit is 12500SYP per quarter.</t>
+  </si>
+  <si>
+    <t>the commission should be calculated for the LG amount in foreign currency, and then take the equivalent of it in SYP.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment
+-&gt;Amend type -&gt; decrease the LG amount.</t>
+  </si>
+  <si>
+    <t>it is supposed to revert from the margin by the decreased amount.</t>
+  </si>
+  <si>
+    <t>the margin is still without any decreasing.</t>
+  </si>
+  <si>
+    <t>Letter of Guarantee-&gt;Local LG Amendment
+-&gt;Amend type -&gt; increase the LG amount.</t>
+  </si>
+  <si>
+    <t>commission to be taken for the increased amount.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -803,12 +837,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -816,6 +844,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,7 +964,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -951,15 +985,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -970,6 +1003,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1266,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1281,31 +1316,31 @@
     <col min="6" max="6" width="16.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="17.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="14.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="41.5703125" customWidth="1"/>
+    <col min="9" max="9" width="69.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="11"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:9">
@@ -1344,8 +1379,8 @@
       <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>55</v>
+      <c r="C4" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>10</v>
@@ -1370,8 +1405,8 @@
       <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>55</v>
+      <c r="C5" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>16</v>
@@ -1396,8 +1431,8 @@
       <c r="B6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>55</v>
+      <c r="C6" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>18</v>
@@ -1422,8 +1457,8 @@
       <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
+      <c r="C7" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>22</v>
@@ -1435,7 +1470,10 @@
         <v>45357</v>
       </c>
       <c r="G7" s="3">
-        <v>45357</v>
+        <v>45442</v>
+      </c>
+      <c r="H7" s="3">
+        <v>45442</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>21</v>
@@ -1448,8 +1486,8 @@
       <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>75</v>
+      <c r="C8" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>29</v>
@@ -1474,148 +1512,145 @@
       <c r="B9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>9</v>
+      <c r="C9" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="F9" s="3">
-        <v>45363</v>
+        <v>45364</v>
       </c>
       <c r="G9" s="3">
-        <v>45363</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75">
+        <v>45407</v>
+      </c>
+      <c r="H9" s="3">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="F10" s="3">
         <v>45364</v>
       </c>
       <c r="G10" s="3">
-        <v>45407</v>
+        <v>45417</v>
       </c>
       <c r="H10" s="3">
-        <v>45407</v>
-      </c>
+        <v>45417</v>
+      </c>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="45">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="F11" s="3">
         <v>45364</v>
       </c>
       <c r="G11" s="3">
-        <v>45417</v>
+        <v>45405</v>
       </c>
       <c r="H11" s="3">
-        <v>45417</v>
-      </c>
-      <c r="I11" s="9"/>
+        <v>45405</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="45">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="F12" s="3">
         <v>45364</v>
       </c>
       <c r="G12" s="3">
-        <v>45405</v>
+        <v>45417</v>
       </c>
       <c r="H12" s="3">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="45">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F13" s="3">
         <v>45364</v>
       </c>
       <c r="G13" s="3">
-        <v>45417</v>
-      </c>
-      <c r="H13" s="3">
-        <v>45417</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>48</v>
-      </c>
       <c r="F14" s="3">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="G14" s="3">
-        <v>45400</v>
+        <v>45365</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
@@ -1623,22 +1658,25 @@
         <v>12</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="F15" s="3">
         <v>45365</v>
       </c>
       <c r="G15" s="3">
-        <v>45365</v>
+        <v>45382</v>
+      </c>
+      <c r="H15" s="3">
+        <v>45382</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="45">
@@ -1648,20 +1686,23 @@
       <c r="B16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>55</v>
+      <c r="C16" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>54</v>
-      </c>
       <c r="F16" s="3">
-        <v>45365</v>
+        <v>45370</v>
       </c>
       <c r="G16" s="3">
-        <v>45382</v>
+        <v>45375</v>
+      </c>
+      <c r="H16" s="3">
+        <v>45375</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="45">
@@ -1671,14 +1712,14 @@
       <c r="B17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F17" s="3">
         <v>45370</v>
@@ -1690,47 +1731,50 @@
         <v>45375</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="45">
+    <row r="18" spans="1:9" ht="60">
       <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="F18" s="3">
-        <v>45370</v>
+        <v>45375</v>
       </c>
       <c r="G18" s="3">
-        <v>45375</v>
+        <v>45405</v>
       </c>
       <c r="H18" s="3">
-        <v>45375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="60">
+        <v>45405</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30">
       <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="F19" s="3">
         <v>45375</v>
@@ -1741,51 +1785,48 @@
       <c r="H19" s="3">
         <v>45405</v>
       </c>
-      <c r="I19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="30">
+    </row>
+    <row r="20" spans="1:9" ht="75">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3">
         <v>45375</v>
       </c>
       <c r="G20" s="3">
-        <v>45405</v>
+        <v>45400</v>
       </c>
       <c r="H20" s="3">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="75">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30">
       <c r="A21">
         <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="F21" s="3">
         <v>45375</v>
@@ -1797,96 +1838,99 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="60">
       <c r="A22">
         <v>19</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="F22" s="3">
         <v>45375</v>
       </c>
       <c r="G22" s="3">
-        <v>45400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>45400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="60">
+        <v>45382</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="195">
       <c r="A23">
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="F23" s="3">
-        <v>45375</v>
+        <v>45378</v>
       </c>
       <c r="G23" s="3">
-        <v>45382</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="195">
+        <v>45442</v>
+      </c>
+      <c r="H23" s="3">
+        <v>45442</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30">
       <c r="A24">
         <v>21</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="F24" s="3">
         <v>45378</v>
       </c>
       <c r="G24" s="3">
-        <v>45400</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30">
+        <v>45405</v>
+      </c>
+      <c r="H24" s="3">
+        <v>45405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="60">
       <c r="A25">
         <v>22</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>55</v>
+        <v>76</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F25" s="3">
         <v>45378</v>
@@ -1898,47 +1942,44 @@
         <v>45405</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="60">
+    <row r="26" spans="1:9" ht="30">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>79</v>
       </c>
       <c r="F26" s="3">
         <v>45378</v>
       </c>
       <c r="G26" s="3">
-        <v>45405</v>
-      </c>
-      <c r="H26" s="3">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="30">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="45">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="F27" s="3">
         <v>45378</v>
@@ -1947,27 +1988,33 @@
         <v>45378</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="45">
+    <row r="28" spans="1:9" ht="30">
       <c r="A28">
         <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="3">
+        <v>45384</v>
+      </c>
+      <c r="G28" s="3">
+        <v>45405</v>
+      </c>
+      <c r="H28" s="3">
+        <v>45405</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="F28" s="3">
-        <v>45378</v>
-      </c>
-      <c r="G28" s="3">
-        <v>45378</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="45">
@@ -1975,16 +2022,16 @@
         <v>26</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F29" s="3">
         <v>45384</v>
@@ -1995,25 +2042,22 @@
       <c r="H29" s="3">
         <v>45405</v>
       </c>
-      <c r="I29" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="45">
+    </row>
+    <row r="30" spans="1:9" ht="30">
       <c r="A30">
         <v>27</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F30" s="3">
         <v>45384</v>
@@ -2025,44 +2069,44 @@
         <v>45405</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="30">
+    <row r="31" spans="1:9" ht="75">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>90</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>84</v>
       </c>
       <c r="F31" s="3">
         <v>45384</v>
       </c>
       <c r="G31" s="3">
-        <v>45405</v>
+        <v>45417</v>
       </c>
       <c r="H31" s="3">
-        <v>45405</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="75">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="90">
       <c r="A32">
         <v>29</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>55</v>
+        <v>93</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>94</v>
@@ -2076,34 +2120,31 @@
       <c r="H32" s="3">
         <v>45417</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="120">
+      <c r="I32" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="45">
       <c r="A33">
         <v>30</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>55</v>
+        <v>99</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>9</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>95</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F33" s="3">
         <v>45384</v>
       </c>
       <c r="G33" s="3">
-        <v>45417</v>
-      </c>
-      <c r="H33" s="3">
-        <v>45417</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>96</v>
+        <v>45384</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="45">
@@ -2111,16 +2152,16 @@
         <v>31</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F34" s="3">
         <v>45384</v>
@@ -2129,116 +2170,116 @@
         <v>45384</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="45">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35">
         <v>32</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>104</v>
-      </c>
       <c r="E35" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F35" s="3">
-        <v>45384</v>
+        <v>45385</v>
       </c>
       <c r="G35" s="3">
-        <v>45384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="30">
+        <v>45407</v>
+      </c>
+      <c r="H35" s="3">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45">
       <c r="A36">
         <v>33</v>
       </c>
       <c r="B36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="F36" s="3">
         <v>45385</v>
       </c>
       <c r="G36" s="3">
-        <v>45407</v>
-      </c>
-      <c r="H36" s="3">
-        <v>45407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="45">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="105">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F37" s="3">
-        <v>45385</v>
+        <v>45386</v>
       </c>
       <c r="G37" s="3">
-        <v>45385</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="105">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45">
       <c r="A38">
         <v>35</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>113</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>112</v>
       </c>
       <c r="F38" s="3">
-        <v>45386</v>
+        <v>45398</v>
       </c>
       <c r="G38" s="3">
-        <v>45386</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="45">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30">
       <c r="A39">
         <v>36</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" s="3">
         <v>45398</v>
@@ -2252,16 +2293,16 @@
         <v>37</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>119</v>
       </c>
       <c r="F40" s="3">
         <v>45398</v>
@@ -2275,32 +2316,32 @@
         <v>38</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="F41" s="3">
-        <v>45398</v>
+        <v>45403</v>
       </c>
       <c r="G41" s="3">
-        <v>45398</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="45">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="9" t="s">
@@ -2310,10 +2351,13 @@
         <v>125</v>
       </c>
       <c r="F42" s="3">
-        <v>45398</v>
+        <v>45403</v>
       </c>
       <c r="G42" s="3">
-        <v>45398</v>
+        <v>45403</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30">
@@ -2321,16 +2365,16 @@
         <v>40</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F43" s="3">
         <v>45403</v>
@@ -2339,21 +2383,21 @@
         <v>45403</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="60">
+    <row r="44" spans="1:9" ht="30">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>131</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F44" s="3">
         <v>45403</v>
@@ -2361,153 +2405,150 @@
       <c r="G44" s="3">
         <v>45403</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="30">
+    </row>
+    <row r="45" spans="1:9" ht="60">
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B45" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F45" s="3">
-        <v>45403</v>
-      </c>
-      <c r="G45" s="3">
-        <v>45403</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30">
+      <c r="F45" s="17">
+        <v>45405</v>
+      </c>
+      <c r="G45" s="17">
+        <v>45406</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" ht="45">
       <c r="A46">
         <v>43</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="F46" s="3">
+        <v>45405</v>
+      </c>
+      <c r="G46" s="3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="45">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="3">
-        <v>45403</v>
-      </c>
-      <c r="G46" s="3">
-        <v>45403</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="60">
-      <c r="A47" s="6">
-        <v>44</v>
-      </c>
-      <c r="B47" s="17" t="s">
+      <c r="D47" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F47" s="17">
         <v>45405</v>
       </c>
-      <c r="G47" s="18">
-        <v>45406</v>
-      </c>
-      <c r="H47" s="18"/>
+      <c r="G47" s="17">
+        <v>45405</v>
+      </c>
+      <c r="H47" s="17"/>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" ht="45">
+    <row r="48" spans="1:9" ht="60">
       <c r="A48">
         <v>45</v>
       </c>
       <c r="B48" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="E48" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45406</v>
+      </c>
+      <c r="G48" s="3">
+        <v>45417</v>
+      </c>
+      <c r="H48" s="3">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="30">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="3">
-        <v>45405</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="D49" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F49" s="3">
         <v>45406</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="45">
-      <c r="A49" s="6">
-        <v>46</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="F49" s="18">
-        <v>45405</v>
-      </c>
-      <c r="G49" s="18">
-        <v>45405</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" ht="60">
+      <c r="G49" s="3">
+        <v>45406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="30">
       <c r="A50">
         <v>47</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="E50" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>153</v>
       </c>
       <c r="F50" s="3">
         <v>45406</v>
       </c>
       <c r="G50" s="3">
-        <v>45417</v>
-      </c>
-      <c r="H50" s="3">
-        <v>45417</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30">
@@ -2515,12 +2556,12 @@
         <v>48</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51" s="14" t="s">
         <v>155</v>
       </c>
       <c r="E51" s="9" t="s">
@@ -2530,82 +2571,82 @@
         <v>45406</v>
       </c>
       <c r="G51" s="3">
-        <v>45406</v>
+        <v>45417</v>
+      </c>
+      <c r="H51" s="3">
+        <v>45417</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="30">
       <c r="A52">
         <v>49</v>
       </c>
-      <c r="B52" t="s">
-        <v>157</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>158</v>
+      <c r="B52" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>155</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F52" s="3">
         <v>45406</v>
       </c>
       <c r="G52" s="3">
-        <v>45406</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="30">
+        <v>45417</v>
+      </c>
+      <c r="H52" s="3">
+        <v>45417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="45">
       <c r="A53">
         <v>50</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>162</v>
-      </c>
       <c r="E53" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F53" s="3">
-        <v>45406</v>
+        <v>45431</v>
       </c>
       <c r="G53" s="3">
-        <v>45417</v>
-      </c>
-      <c r="H53" s="3">
-        <v>45417</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="30">
+        <v>45431</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="45">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>162</v>
+        <v>157</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>158</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F54" s="3">
-        <v>45406</v>
+        <v>45431</v>
       </c>
       <c r="G54" s="3">
-        <v>45417</v>
-      </c>
-      <c r="H54" s="3">
-        <v>45417</v>
+        <v>45431</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="45">
@@ -2613,53 +2654,167 @@
         <v>52</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F55" s="3">
-        <v>45431</v>
-      </c>
-      <c r="G55" s="3">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="45">
+        <v>163</v>
+      </c>
+      <c r="F55" s="18">
+        <v>45439</v>
+      </c>
+      <c r="G55" s="18">
+        <v>45439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="60">
       <c r="A56">
         <v>53</v>
       </c>
       <c r="B56" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="9" t="s">
+      <c r="E56" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="F56" s="3">
-        <v>45431</v>
-      </c>
-      <c r="G56" s="3">
-        <v>45431</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="F56" s="18">
+        <v>45440</v>
+      </c>
+      <c r="G56" s="18">
+        <v>45440</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30">
       <c r="A57">
         <v>54</v>
       </c>
+      <c r="B57" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45441</v>
+      </c>
+      <c r="G57" s="3">
+        <v>45441</v>
+      </c>
+      <c r="I57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="45">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45442</v>
+      </c>
+      <c r="G58" s="3">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="60">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45442</v>
+      </c>
+      <c r="G59" s="3">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="30">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="3">
+        <v>45442</v>
+      </c>
+      <c r="G60" s="3">
+        <v>45442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="30">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="3">
+        <v>45446</v>
+      </c>
+      <c r="G61" s="3">
+        <v>45446</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C60" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
@@ -2685,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
